--- a/EXCEL_body.xlsx
+++ b/EXCEL_body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matejscislak/Desktop/M&amp;P_PremierLeague/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44EF6D-A2E8-2F4F-B276-1B2347697779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409AB1FC-9F10-9144-A9C3-D65A340CF814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15660" xr2:uid="{2352134B-4867-3243-9546-C92A72ECC443}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,11 +238,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -266,6 +305,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,8 +319,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF859DFF"/>
       <color rgb="FF00FFEA"/>
-      <color rgb="FF859DFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -609,7 +654,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +662,7 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
@@ -630,10 +675,10 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -656,7 +701,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="17">
         <v>16</v>
       </c>
       <c r="E2" s="4">
@@ -680,7 +725,7 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="18">
         <v>27</v>
       </c>
       <c r="E3" s="9">
@@ -716,7 +761,7 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="19">
         <v>13</v>
       </c>
       <c r="E4" s="9">
@@ -733,15 +778,15 @@
       </c>
       <c r="J4" s="1">
         <f xml:space="preserve"> SUM(B2:B39)</f>
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="K4" s="1">
         <f xml:space="preserve"> SUM(D2:D39)</f>
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="L4" s="1">
         <f xml:space="preserve"> SUM(F2:F39)</f>
-        <v>257</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -755,7 +800,7 @@
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="19">
         <v>15</v>
       </c>
       <c r="E5" s="2">
@@ -772,15 +817,15 @@
       </c>
       <c r="J5" s="1">
         <f xml:space="preserve"> SUM(C2:C39)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1">
         <f xml:space="preserve"> SUM(E2:E39)</f>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1">
         <f xml:space="preserve"> SUM(G2:G39)</f>
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -794,7 +839,7 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="19">
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -818,7 +863,7 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="18">
         <v>24</v>
       </c>
       <c r="E7" s="9">
@@ -842,7 +887,7 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="18">
         <v>23</v>
       </c>
       <c r="E8" s="9">
@@ -866,7 +911,7 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="19">
         <v>16</v>
       </c>
       <c r="E9" s="9">
@@ -890,7 +935,7 @@
       <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="18">
         <v>12</v>
       </c>
       <c r="E10" s="9">
@@ -915,7 +960,7 @@
       <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="19">
         <f>14-21</f>
         <v>-7</v>
       </c>
@@ -941,7 +986,7 @@
       <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="19">
         <v>15</v>
       </c>
       <c r="E12" s="9">
@@ -965,7 +1010,7 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="19">
         <v>12</v>
       </c>
       <c r="E13" s="2">
@@ -989,7 +1034,7 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="19">
         <v>13</v>
       </c>
       <c r="E14" s="2">
@@ -1013,7 +1058,7 @@
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="19">
         <v>22</v>
       </c>
       <c r="E15" s="2">
@@ -1037,7 +1082,7 @@
       <c r="C16" s="9">
         <v>5</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="18">
         <v>20</v>
       </c>
       <c r="E16" s="2">
@@ -1061,7 +1106,7 @@
       <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="19">
         <v>3</v>
       </c>
       <c r="E17" s="2">
@@ -1079,23 +1124,98 @@
         <f t="shared" si="0"/>
         <v>17. kolo</v>
       </c>
+      <c r="B18" s="10">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>18. kolo</v>
       </c>
+      <c r="B19" s="10">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>19. kolo</v>
       </c>
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="10">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>20. kolo</v>
+      </c>
+      <c r="B21" s="10">
+        <f>21-22</f>
+        <v>-1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19">
+        <f>8-16</f>
+        <v>-8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <f>20-25</f>
+        <v>-5</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
